--- a/Automation_vinayak/scripts/Testsuit.xlsx
+++ b/Automation_vinayak/scripts/Testsuit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="15345" windowHeight="4290"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="15345" windowHeight="4230"/>
   </bookViews>
   <sheets>
     <sheet name="MyTestsuit" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Hotel</t>
+  </si>
+  <si>
+    <t>gold.xlsx</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>Gold cbase</t>
   </si>
 </sst>
 </file>
@@ -936,10 +945,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,13 +1244,13 @@
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>9</v>
@@ -1250,21 +1259,21 @@
         <v>23</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>9</v>
@@ -1273,21 +1282,21 @@
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>9</v>
@@ -1296,21 +1305,21 @@
         <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>9</v>
@@ -1322,26 +1331,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>41</v>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>10</v>
       </c>
     </row>
